--- a/Data/sampling_2021-05-03_05_2021-06-07.xlsx
+++ b/Data/sampling_2021-05-03_05_2021-06-07.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbulla/Dropbox/Science/DATA_collection/ruff_sperm/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB31344-BEFA-BC48-9F7D-5FE4D1534EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$377</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="157">
   <si>
     <t>sample_ID</t>
   </si>
@@ -492,12 +505,15 @@
   </si>
   <si>
     <t>1649 dead july 2020, so it is likely AO27121649</t>
+  </si>
+  <si>
+    <t>7 -04 - 105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -633,7 +649,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,32 +953,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="69" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1032,15 +1048,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1649</v>
       </c>
-      <c r="C3">
-        <v>1649</v>
+      <c r="C3" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="2">
         <v>44319.395752314813</v>
@@ -1051,8 +1067,11 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1093,7 +1112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1116,7 +1135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1160,7 +1179,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1183,7 +1202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1221,7 +1240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1241,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1305,7 +1324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1346,7 +1365,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1387,7 +1406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1410,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1448,7 +1467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1489,7 +1508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1527,7 +1546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1547,7 +1566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1588,15 +1607,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>704105</v>
       </c>
-      <c r="C20">
-        <v>704105</v>
+      <c r="C20" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="D20" s="2">
         <v>44319.470057870371</v>
@@ -1629,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1649,7 +1668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1690,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1710,7 +1729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1754,7 +1773,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1795,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1833,7 +1852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1874,7 +1893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1897,7 +1916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1920,7 +1939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1961,7 +1980,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2002,7 +2021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2040,7 +2059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2081,7 +2100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2119,7 +2138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2160,7 +2179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2198,7 +2217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2236,7 +2255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2277,7 +2296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2303,7 +2322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2382,7 +2401,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2429,7 +2448,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2467,7 +2486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2546,7 +2565,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2587,7 +2606,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2628,7 +2647,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2666,7 +2685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2704,7 +2723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2727,7 +2746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2768,7 +2787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2806,7 +2825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2829,7 +2848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2870,7 +2889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2911,7 +2930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2955,7 +2974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2996,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -3040,7 +3059,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -3081,7 +3100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -3122,7 +3141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -3163,7 +3182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -3204,7 +3223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -3251,7 +3270,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3292,7 +3311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -3371,7 +3390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3412,7 +3431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3435,7 +3454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3476,7 +3495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3514,7 +3533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3555,7 +3574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3593,7 +3612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3634,7 +3653,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3675,7 +3694,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3713,7 +3732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3751,7 +3770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3792,7 +3811,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3833,7 +3852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3874,7 +3893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>79</v>
       </c>
@@ -3894,7 +3913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>80</v>
       </c>
@@ -3914,7 +3933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>81</v>
       </c>
@@ -3934,7 +3953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3975,7 +3994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -4019,7 +4038,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -4060,7 +4079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -4083,7 +4102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -4121,7 +4140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -4165,7 +4184,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4206,7 +4225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -4227,7 +4246,7 @@
       </c>
       <c r="J90" s="14"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4271,7 +4290,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4312,7 +4331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4353,7 +4372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4397,7 +4416,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4441,7 +4460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4482,7 +4501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4523,7 +4542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4561,7 +4580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4602,7 +4621,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -4623,7 +4642,7 @@
       </c>
       <c r="G100" s="10"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -4644,7 +4663,7 @@
       </c>
       <c r="G101" s="10"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4685,7 +4704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4726,7 +4745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4770,7 +4789,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -4808,7 +4827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -4828,7 +4847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4869,7 +4888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4910,7 +4929,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4951,7 +4970,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4992,7 +5011,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>110</v>
       </c>
@@ -5015,7 +5034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5056,7 +5075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5097,7 +5116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -5135,7 +5154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5176,7 +5195,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5196,7 +5215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5216,7 +5235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5263,7 +5282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5283,7 +5302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5303,7 +5322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5344,7 +5363,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5382,7 +5401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5423,7 +5442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>135</v>
       </c>
@@ -5449,13 +5468,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>143</v>
       </c>
       <c r="B125" t="s">
         <v>144</v>
       </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
       <c r="D125" s="2">
         <v>44355.457812499997</v>
       </c>
@@ -5469,13 +5491,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>146</v>
       </c>
       <c r="B126" t="s">
         <v>145</v>
       </c>
+      <c r="C126" t="s">
+        <v>145</v>
+      </c>
       <c r="D126" s="2">
         <v>44355.459641203706</v>
       </c>
@@ -5492,13 +5517,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>150</v>
       </c>
       <c r="B127" t="s">
         <v>147</v>
       </c>
+      <c r="C127" t="s">
+        <v>147</v>
+      </c>
       <c r="D127" s="2">
         <v>44355.460821759261</v>
       </c>
@@ -5515,13 +5543,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>151</v>
       </c>
       <c r="B128" t="s">
         <v>148</v>
       </c>
+      <c r="C128" t="s">
+        <v>148</v>
+      </c>
       <c r="D128" s="2">
         <v>44355.461712962962</v>
       </c>
@@ -5535,13 +5566,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
       <c r="B129" t="s">
         <v>149</v>
       </c>
+      <c r="C129" t="s">
+        <v>149</v>
+      </c>
       <c r="D129" s="2">
         <v>44355.463819444441</v>
       </c>
@@ -5558,10 +5592,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>1399</v>
       </c>
+      <c r="C130" s="15">
+        <v>1399</v>
+      </c>
       <c r="I130">
         <v>217</v>
       </c>
@@ -5581,10 +5618,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>42</v>
       </c>
+      <c r="C131" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I131">
         <v>218</v>
       </c>
@@ -5604,10 +5644,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>50</v>
       </c>
+      <c r="C132" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="I132">
         <v>219</v>
       </c>
@@ -5627,10 +5670,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>1368</v>
       </c>
+      <c r="C133">
+        <v>1368</v>
+      </c>
       <c r="I133">
         <v>220</v>
       </c>
@@ -5650,10 +5696,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>1659</v>
       </c>
+      <c r="C134">
+        <v>1659</v>
+      </c>
       <c r="I134">
         <v>221</v>
       </c>
@@ -5673,10 +5722,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>54</v>
       </c>
+      <c r="C135" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I135">
         <v>222</v>
       </c>
@@ -5696,10 +5748,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>135</v>
       </c>
+      <c r="C136" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="I136">
         <v>223</v>
       </c>
@@ -5719,10 +5774,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>1339</v>
       </c>
+      <c r="C137">
+        <v>1339</v>
+      </c>
       <c r="I137">
         <v>224</v>
       </c>
@@ -5742,10 +5800,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>1360</v>
       </c>
+      <c r="C138">
+        <v>1360</v>
+      </c>
       <c r="I138">
         <v>225</v>
       </c>
@@ -5766,35 +5827,35 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B377"/>
+  <autoFilter ref="B1:B377" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5808,7 +5869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5819,7 +5880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5827,12 +5888,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5840,27 +5901,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>

--- a/Data/sampling_2021-05-03_05_2021-06-07.xlsx
+++ b/Data/sampling_2021-05-03_05_2021-06-07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbulla/Dropbox/Science/DATA_collection/ruff_sperm/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB31344-BEFA-BC48-9F7D-5FE4D1534EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F0A4A-BF34-5845-BEA3-E7C7078B7047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -964,10 +964,10 @@
   <dimension ref="A1:O138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="69" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4562,7 +4562,7 @@
         <v>23</v>
       </c>
       <c r="I98">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J98" s="2">
         <v>44354.383009259262</v>
